--- a/Output/Rates_controlonlymods_edit.xlsx
+++ b/Output/Rates_controlonlymods_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyssa\Desktop\Repositories\TidePoolMicrobes\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0BD550-0935-4C19-9B95-2580A70DA7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB27FC02-EEC9-4485-8E7F-3E7D4125566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16395" yWindow="4470" windowWidth="17760" windowHeight="15825" xr2:uid="{63A3DB2A-D49F-46E5-9926-E9E70E1F5A23}"/>
+    <workbookView xWindow="14303" yWindow="-6173" windowWidth="24195" windowHeight="14476" xr2:uid="{63A3DB2A-D49F-46E5-9926-E9E70E1F5A23}"/>
   </bookViews>
   <sheets>
     <sheet name="Rates_controlonlymods" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>(Intercept)</t>
-  </si>
-  <si>
-    <t>foundation_sppPhyllospadix</t>
-  </si>
-  <si>
-    <t>before_afterBefore</t>
-  </si>
-  <si>
-    <t>foundation_sppPhyllospadix:before_afterBefore</t>
   </si>
   <si>
     <t>BIX</t>
   </si>
   <si>
     <t>Heterotrophic Bacteria</t>
-  </si>
-  <si>
-    <t>HIX</t>
   </si>
   <si>
     <t>M:C</t>
@@ -58,9 +46,6 @@
     <t>Estimate</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Statistic</t>
   </si>
   <si>
@@ -72,6 +57,21 @@
   <si>
     <t>&lt;0.001</t>
   </si>
+  <si>
+    <t>Foundation Species</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Foundation Species:Month</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen</t>
+  </si>
 </sst>
 </file>
 
@@ -394,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -525,7 +525,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -540,13 +540,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -558,13 +558,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -576,24 +576,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -609,36 +592,107 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -689,29 +743,43 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1091,479 +1159,443 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.36773007041022199</v>
+        <v>0.72281240788551904</v>
       </c>
       <c r="E3" s="2">
-        <v>0.36068815622587602</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.01952355258356</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.31408149358985199</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+        <v>2.6031711730129499</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.26251336257556E-2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>-0.38379945717157898</v>
+        <v>0.25457680326738502</v>
       </c>
       <c r="E4" s="2">
-        <v>0.51009008232198005</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-0.75241505465953296</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.456206712606815</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+        <v>0.64830736911068398</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.52023335941425997</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.45753050311082699</v>
+        <v>-1.4025956462084901</v>
       </c>
       <c r="E5" s="2">
-        <v>0.45842664599643801</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-0.99804517714352403</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.32425704181728099</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+        <v>-4.0793533506177004</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>0.36387456693331299</v>
+        <v>0.212402411464156</v>
       </c>
       <c r="E6" s="2">
-        <v>0.64002768717977998</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.56852941555808501</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.57285380360299598</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>0.43921433037811197</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.66270556628852795</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0.68268850303628004</v>
+        <v>0.53476758763683396</v>
       </c>
       <c r="E7" s="2">
-        <v>0.24835162549103501</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.7488787387096099</v>
-      </c>
-      <c r="G7" s="8">
-        <v>8.7077203021262099E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+        <v>1.6747377594911801</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.101417234866859</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>0.53393933717488895</v>
+        <v>-0.884077012499763</v>
       </c>
       <c r="E8" s="2">
-        <v>0.35122223700682498</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.5202321519423401</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.13577242656288599</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+        <v>-2.0219536591018001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4.9581656984334199E-2</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>-1.4192765026424501</v>
+        <v>7.7634026070348E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>0.30752844717553102</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-4.6151063931733196</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+        <v>0.20075581501756601</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.84185854428506202</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
-        <v>-5.6458259561642701E-2</v>
+        <v>-0.36175722121755199</v>
       </c>
       <c r="E10" s="2">
-        <v>0.43254079651317601</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-0.13052701621851001</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.89675822407181005</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>-0.67958165767677103</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.50049791591132997</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>5.3856429225317401E-2</v>
+        <v>4.9053162005193697E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>0.36109693510083002</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.149146735931942</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.88218728731682905</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+        <v>0.203906161847145</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.83938881182257497</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="16"/>
       <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1.4135034218337299</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-4.1547529867082797</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="16"/>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.80200197065854695</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.69228163848631</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.00724284847017E-2</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="16"/>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.422282651209413</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.00787462929314</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.31915274789547698</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="17" t="s">
         <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.163560274669802</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.51066818295095195</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.320286793127881</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.750418116836302</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3.9121860784826698E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.458946194879219</v>
-      </c>
-      <c r="F13" s="2">
-        <v>8.5242804540785894E-2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.93249360340840703</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-0.48179875368630498</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.64075305005457595</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-0.75192580612026305</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.45649759212149599</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.72567903112221599</v>
+        <v>0.43129326203645002</v>
       </c>
       <c r="E15" s="2">
-        <v>0.32717774136424299</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-2.21799633464162</v>
-      </c>
-      <c r="G15" s="8">
-        <v>3.2297427142162598E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+        <v>1.20787945854826</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.234367521482785</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>1.2174908779518601</v>
+        <v>-0.39916816039448</v>
       </c>
       <c r="E16" s="2">
-        <v>0.462699199143909</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2.63127941480011</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1.20233434293993E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
+        <v>-0.79048169402018298</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.43402715965326299</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="18"/>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2">
-        <v>0.47329252137051497</v>
+        <v>-0.47585166116966099</v>
       </c>
       <c r="E17" s="2">
-        <v>0.415835652015068</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.1381720616715201</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.26182004284286697</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+        <v>-1.04853888482345</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.30084511159153299</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="19"/>
       <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.22029172233514699</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.34559766371572298</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.73150238182682703</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="16" t="s">
         <v>3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-0.62164022812598596</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.58056470523785297</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-1.0707509817898799</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.29069994061308801</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>0.53476758763683396</v>
+        <v>-0.70609992994094894</v>
       </c>
       <c r="E19" s="2">
-        <v>0.31931422373811202</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.6747377594911801</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.101417234866859</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
+        <v>-2.1454732001001302</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3.8198639489397702E-2</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="16"/>
       <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
-        <v>-0.884077012499763</v>
+        <v>1.26724416314894</v>
       </c>
       <c r="E20" s="2">
-        <v>0.43723900818403899</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-2.0219536591018001</v>
-      </c>
-      <c r="G20" s="8">
-        <v>4.9581656984334199E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
+        <v>2.72271527161007</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9.6322946269025902E-3</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="16"/>
       <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.49263382258585398</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.1777230637698799</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.246044038667598</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="16"/>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-0.77272770083100695</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-1.31524028913819</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.196109890210274</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="17" t="s">
         <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>7.7634026070348E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.38670872902762399</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.20075581501756601</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.84185854428506202</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>-0.36175722121755199</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.53232340386328503</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-0.67958165767677103</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.50049791591132997</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>4.9053162005193697E-2</v>
+        <v>0.68268850303628004</v>
       </c>
       <c r="E23" s="2">
-        <v>0.240567335292032</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.203906161847145</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0.83938881182257497</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
+        <v>2.7488787387096099</v>
+      </c>
+      <c r="F23" s="6">
+        <v>8.7077203021262099E-3</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2">
-        <v>-1.4135034218337299</v>
+        <v>0.53393933717488895</v>
       </c>
       <c r="E24" s="2">
-        <v>0.34021358823394698</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-4.1547529867082797</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
+        <v>1.5202321519423401</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.13577242656288599</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="18"/>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2">
-        <v>0.80200197065854695</v>
+        <v>-1.4192765026424501</v>
       </c>
       <c r="E25" s="2">
-        <v>0.29788932895945303</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2.69228163848631</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1.00724284847017E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.422282651209413</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.41898331293999902</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1.00787462929314</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.31915274789547698</v>
-      </c>
+        <v>-4.6151063931733196</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="20"/>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-5.6458259561642701E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>-0.13052701621851001</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.89675822407181005</v>
+      </c>
+      <c r="G26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1571,9 +1603,10 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>